--- a/backend/templates/monthly_template/out.xlsx
+++ b/backend/templates/monthly_template/out.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">THEO DÕI THÀNH TÍCH</t>
   </si>
@@ -45,23 +45,20 @@
   </si>
   <si>
     <t xml:space="preserve">Ghi chú</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is neat!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts>
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="H:MM"/>
     <numFmt numFmtId="166" formatCode="[H]:MM:SS"/>
     <numFmt numFmtId="167" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="168" formatCode="M/D/YYYY\ H:MM"/>
   </numFmts>
-  <fonts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -108,7 +105,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills>
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders>
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -176,7 +173,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs>
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -310,9 +307,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -324,12 +322,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="33.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="8.85"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" t="s" s="2">
+    <row r="1" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
@@ -340,25 +339,25 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" s="4" customFormat="true" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" t="s" s="3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -381,9 +380,7 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" s="8" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" t="s" s="5">
-        <v>8</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="9"/>
       <c r="D5" s="5"/>
@@ -590,6 +587,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
